--- a/Assets/06.Table/StudentDispatch.xlsx
+++ b/Assets/06.Table/StudentDispatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FAE21A-1494-457B-9141-60FC412F622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA21F4-706A-4A84-938D-144297BA97D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentDispatch" sheetId="1" r:id="rId1"/>
@@ -59,68 +59,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2500</t>
-  </si>
-  <si>
     <t>3000</t>
   </si>
   <si>
-    <t>3500</t>
-  </si>
-  <si>
     <t>4000</t>
   </si>
   <si>
-    <t>4500</t>
-  </si>
-  <si>
     <t>5000</t>
   </si>
   <si>
-    <t>5500</t>
-  </si>
-  <si>
     <t>6000</t>
   </si>
   <si>
-    <t>6500</t>
-  </si>
-  <si>
     <t>7000</t>
   </si>
   <si>
-    <t>7500</t>
-  </si>
-  <si>
     <t>8000</t>
   </si>
   <si>
-    <t>8500</t>
-  </si>
-  <si>
     <t>9000</t>
   </si>
   <si>
-    <t>9500</t>
-  </si>
-  <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -550,7 +548,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/StudentDispatch.xlsx
+++ b/Assets/06.Table/StudentDispatch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA21F4-706A-4A84-938D-144297BA97D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6687FE5-5ADC-4D11-88A4-C9914814A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,51 @@
   </si>
   <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>11500</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>13500</t>
+  </si>
+  <si>
+    <t>14500</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>23000</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>26000</t>
+  </si>
+  <si>
+    <t>27000</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>29000</t>
+  </si>
+  <si>
+    <t>30000</t>
   </si>
 </sst>
 </file>
@@ -249,9 +294,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +334,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -395,7 +440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1180,6 +1225,176 @@
       <c r="AB21"/>
       <c r="AC21"/>
     </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>110</v>
+      </c>
+      <c r="C24">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>120</v>
+      </c>
+      <c r="C26">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>125</v>
+      </c>
+      <c r="C27">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>130</v>
+      </c>
+      <c r="C28">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>135</v>
+      </c>
+      <c r="C29">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>140</v>
+      </c>
+      <c r="C30">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>145</v>
+      </c>
+      <c r="C31">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/StudentDispatch.xlsx
+++ b/Assets/06.Table/StudentDispatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6687FE5-5ADC-4D11-88A4-C9914814A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901225F9-AC6F-41B1-A157-F89C664DBC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentDispatch" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,21 +121,6 @@
     <t>20000</t>
   </si>
   <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>11500</t>
-  </si>
-  <si>
-    <t>12500</t>
-  </si>
-  <si>
-    <t>13500</t>
-  </si>
-  <si>
-    <t>14500</t>
-  </si>
-  <si>
     <t>21000</t>
   </si>
   <si>
@@ -164,6 +149,9 @@
   </si>
   <si>
     <t>30000</t>
+  </si>
+  <si>
+    <t>9064</t>
   </si>
 </sst>
 </file>
@@ -593,7 +581,7 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1235,11 +1223,11 @@
       <c r="C22">
         <v>104</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
@@ -1252,11 +1240,11 @@
       <c r="C23">
         <v>109</v>
       </c>
-      <c r="D23" t="s">
-        <v>16</v>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
@@ -1269,11 +1257,11 @@
       <c r="C24">
         <v>114</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
+      <c r="D24" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
@@ -1286,11 +1274,11 @@
       <c r="C25">
         <v>119</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
+      <c r="D25" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
@@ -1303,11 +1291,11 @@
       <c r="C26">
         <v>124</v>
       </c>
-      <c r="D26" t="s">
-        <v>28</v>
+      <c r="D26" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
@@ -1320,11 +1308,11 @@
       <c r="C27">
         <v>129</v>
       </c>
-      <c r="D27" t="s">
-        <v>18</v>
+      <c r="D27" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
@@ -1337,11 +1325,11 @@
       <c r="C28">
         <v>134</v>
       </c>
-      <c r="D28" t="s">
-        <v>29</v>
+      <c r="D28" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -1354,11 +1342,11 @@
       <c r="C29">
         <v>139</v>
       </c>
-      <c r="D29" t="s">
-        <v>19</v>
+      <c r="D29" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
@@ -1371,11 +1359,11 @@
       <c r="C30">
         <v>144</v>
       </c>
-      <c r="D30" t="s">
-        <v>30</v>
+      <c r="D30" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
@@ -1388,11 +1376,11 @@
       <c r="C31">
         <v>149</v>
       </c>
-      <c r="D31" t="s">
-        <v>20</v>
+      <c r="D31" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentDispatch.xlsx
+++ b/Assets/06.Table/StudentDispatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901225F9-AC6F-41B1-A157-F89C664DBC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D68119-E318-4ED7-A99A-EDFF57AEDC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentDispatch" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,36 @@
   </si>
   <si>
     <t>9064</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>33000</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>37000</t>
+  </si>
+  <si>
+    <t>38000</t>
+  </si>
+  <si>
+    <t>39000</t>
+  </si>
+  <si>
+    <t>40000</t>
   </si>
 </sst>
 </file>
@@ -578,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1383,6 +1413,176 @@
         <v>35</v>
       </c>
     </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>150</v>
+      </c>
+      <c r="C32">
+        <v>154</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>155</v>
+      </c>
+      <c r="C33">
+        <v>159</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>160</v>
+      </c>
+      <c r="C34">
+        <v>164</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>165</v>
+      </c>
+      <c r="C35">
+        <v>169</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>170</v>
+      </c>
+      <c r="C36">
+        <v>174</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>175</v>
+      </c>
+      <c r="C37">
+        <v>179</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>180</v>
+      </c>
+      <c r="C38">
+        <v>184</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>185</v>
+      </c>
+      <c r="C39">
+        <v>189</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>190</v>
+      </c>
+      <c r="C40">
+        <v>194</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>195</v>
+      </c>
+      <c r="C41">
+        <v>199</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
